--- a/biology/Médecine/Giovanni_Battista_Palletta/Giovanni_Battista_Palletta.xlsx
+++ b/biology/Médecine/Giovanni_Battista_Palletta/Giovanni_Battista_Palletta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giovanni Battista Palletta, né le 15 mars 1748 à Montecrestese et mort le 27 août 1832 à Milan, est un médecin et chirurgien italien.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Giovanni Battista Palletta naquit en 1748 au village de Montecrestese[1], dans la Val d'Ossola. Après avoir fait ses humanités au collège des jésuites de Brigue, en Valais, il vint à Milan, où il étudia l’anatomie sous Patrini, la médecine sous Galardi et la chirurgie sous Bernardino Moscati. Il alla ensuite à Padoue pour y perfectionner ses connaissances en assistant aux leçons de Jean-Baptiste Morgagni. Il venait d’obtenir le grade de docteur en médecine, lorsqu’il fut nommé professeur d’anatomie à Mantoue par l’impératrice Marie-Thérèse, qui voulait fonder dans cette ville une université. Ce projet n’ayant pas eu d’exécution, Palletta retourna à Milan en 1774, et, après quatre ans de travaux et d’études, il se rendit à Pavie, où il se fit reconnaître comme docteur en chirurgie (1778). Revenu à Milan, il y fut nommé chirurgien-adjoint, démonstrateur d’anatomie, professeur de clinique chirurgicale, et enfin chirurgien en chef du grand hôpital en 1787. En 1796, on lui attribua la chaire d’anatomie à l’école spéciale créée à l’hôpital de Milan, et il l’occupa jusqu’en 1818. Palletta continua d’exercer ses fonctions de chirurgien major à l’hôpital jusqu’au moment de sa mort, survenue à Milan le 7 août 1832, à l’âge de 84 ans[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Giovanni Battista Palletta naquit en 1748 au village de Montecrestese, dans la Val d'Ossola. Après avoir fait ses humanités au collège des jésuites de Brigue, en Valais, il vint à Milan, où il étudia l’anatomie sous Patrini, la médecine sous Galardi et la chirurgie sous Bernardino Moscati. Il alla ensuite à Padoue pour y perfectionner ses connaissances en assistant aux leçons de Jean-Baptiste Morgagni. Il venait d’obtenir le grade de docteur en médecine, lorsqu’il fut nommé professeur d’anatomie à Mantoue par l’impératrice Marie-Thérèse, qui voulait fonder dans cette ville une université. Ce projet n’ayant pas eu d’exécution, Palletta retourna à Milan en 1774, et, après quatre ans de travaux et d’études, il se rendit à Pavie, où il se fit reconnaître comme docteur en chirurgie (1778). Revenu à Milan, il y fut nommé chirurgien-adjoint, démonstrateur d’anatomie, professeur de clinique chirurgicale, et enfin chirurgien en chef du grand hôpital en 1787. En 1796, on lui attribua la chaire d’anatomie à l’école spéciale créée à l’hôpital de Milan, et il l’occupa jusqu’en 1818. Palletta continua d’exercer ses fonctions de chirurgien major à l’hôpital jusqu’au moment de sa mort, survenue à Milan le 7 août 1832, à l’âge de 84 ans.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses ouvrages, dans lesquels on reconnaît un observateur judicieux et un praticien consommé, sont écrits avec pureté et même avec élégance : quelques-uns sont en latin, tous les autres sont en italien. En voici les titres :
 Nova gubernacula testis Hunteriani, et tunicæ vaginalis anatomica descriptio, Milan, 1777, in-4° ;
